--- a/2 - Artefatos em Sala de Aula/Framework de Teste.xlsx
+++ b/2 - Artefatos em Sala de Aula/Framework de Teste.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elima\Documents\GitHub\acadTeste\2 - Artefatos em Sala de Aula\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4398B5B-6ABF-4491-8663-4E22A3B52229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB916FB0-D7A5-4A41-8ECF-E2808896DB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{808FF2F2-CA74-48DA-A491-D3D884F77AED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{808FF2F2-CA74-48DA-A491-D3D884F77AED}"/>
   </bookViews>
   <sheets>
     <sheet name="Processo de Teste" sheetId="1" r:id="rId1"/>
-    <sheet name="Mapa de Risco" sheetId="3" r:id="rId2"/>
-    <sheet name="Mapa de Cobertura" sheetId="4" r:id="rId3"/>
-    <sheet name="Roteiro de Teste" sheetId="5" r:id="rId4"/>
-    <sheet name="Validação de Campos" sheetId="6" r:id="rId5"/>
-    <sheet name="TimeLine" sheetId="2" r:id="rId6"/>
+    <sheet name="CT" sheetId="7" r:id="rId2"/>
+    <sheet name="Mapa de Risco" sheetId="3" r:id="rId3"/>
+    <sheet name="Mapa de Cobertura" sheetId="4" r:id="rId4"/>
+    <sheet name="Roteiro de Teste" sheetId="5" r:id="rId5"/>
+    <sheet name="Planilha1" sheetId="8" r:id="rId6"/>
+    <sheet name="Validação de Campos" sheetId="6" r:id="rId7"/>
+    <sheet name="TimeLine" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -164,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="351">
   <si>
     <t>Planejamento</t>
   </si>
@@ -1192,6 +1193,225 @@
   <si>
     <t>Validar Cadastro de Senha</t>
   </si>
+  <si>
+    <t>Escrever Casos de Testes</t>
+  </si>
+  <si>
+    <t>Pré requisito</t>
+  </si>
+  <si>
+    <t>Dados de Entrada</t>
+  </si>
+  <si>
+    <t>Consulta</t>
+  </si>
+  <si>
+    <t>Consulta  PF</t>
+  </si>
+  <si>
+    <t>Consultar CPF Válido</t>
+  </si>
+  <si>
+    <t>Consultar CNPJ Válido</t>
+  </si>
+  <si>
+    <t>Consultar CPF ser Restrição</t>
+  </si>
+  <si>
+    <t>Consultar CPF com restrição</t>
+  </si>
+  <si>
+    <t>CPF Cadastrado na Base</t>
+  </si>
+  <si>
+    <t>Step 1 - Acessar URL www.xpto.com.br
+Step 2 - Clicar em PF
+Step 3 - Digitar CPF Válido
+Step 4 - Clicar no botão Consultar</t>
+  </si>
+  <si>
+    <t>Sistem retorna a msg de CPF validado com sucesso</t>
+  </si>
+  <si>
+    <t>Requisito</t>
+  </si>
+  <si>
+    <t>Codificação</t>
+  </si>
+  <si>
+    <t>Componente</t>
+  </si>
+  <si>
+    <t>Integração de Comp</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Aceite</t>
+  </si>
+  <si>
+    <t>Então o sistema retorna a msg de CPF validado com sucesso</t>
+  </si>
+  <si>
+    <t>CNPJ Cadastrado na Base</t>
+  </si>
+  <si>
+    <t>Step 1 - Acessar URL www.xpto.com.br
+Step 2 - Clicar em PJ
+Step 3 - Digitar CPF Válido
+Step 4 - Clicar no botão Consultar</t>
+  </si>
+  <si>
+    <t>Sistem retorna a msg de CNPJ validado com sucesso</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dado que</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> necesite acessar a URL www.xpto.com.br
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quando</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clico em PF
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Digito CPF Válido
+</t>
+    </r>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Suite</t>
+  </si>
+  <si>
+    <t>Cenário</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dado que necesite acessar a URL www.xpto.com.br
+Quando clico em PF
+E Digito CPF Válido
+Então o sistema retorna a msg de CPF validado com sucesso
+</t>
+  </si>
+  <si>
+    <t>Caso de Teste Escrito</t>
+  </si>
+  <si>
+    <t>Casos de Teste Modelado</t>
+  </si>
+  <si>
+    <t>Preparar o Roteiro de execução</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>Bloqueado</t>
+  </si>
+  <si>
+    <t>Gero Massas de Teste</t>
+  </si>
+  <si>
+    <t>Roteiro de Teste Pronto</t>
+  </si>
+  <si>
+    <t>Massas de Teste Gerada</t>
+  </si>
+  <si>
+    <t>Preparar Ambiente de Teste</t>
+  </si>
+  <si>
+    <t>Ambiente Preparado</t>
+  </si>
 </sst>
 </file>
 
@@ -1200,7 +1420,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1281,8 +1501,16 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1370,6 +1598,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1748,7 +1982,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1873,6 +2107,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1897,12 +2140,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1925,9 +2162,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1987,15 +2221,94 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_TT Matriz de Relevamiento" xfId="1" xr:uid="{65168677-4099-4307-89E1-BC5E5AE931D9}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2028,7 +2341,7 @@
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55BE74BD-FDAE-45EB-8963-61474E204068}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2082,7 +2395,7 @@
                   <a14:compatExt spid="_x0000_s6145"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{284D9451-6E54-4A5A-B9D4-581AECA721D3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2137,7 +2450,7 @@
                   <a14:compatExt spid="_x0000_s6146"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96F7D948-F9E8-48AC-882D-DCCC2A8BF231}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2192,7 +2505,7 @@
                   <a14:compatExt spid="_x0000_s6147"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACCC7070-0761-4740-B6A3-72C9AA04453A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2247,7 +2560,7 @@
                   <a14:compatExt spid="_x0000_s6148"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D587EC7-BEF0-4E4A-9C66-2046D283A922}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2302,7 +2615,7 @@
                   <a14:compatExt spid="_x0000_s6149"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01C06EC-8243-4952-874C-C73A59EB81AD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2357,7 +2670,7 @@
                   <a14:compatExt spid="_x0000_s6150"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF5AF09-16D3-4D05-B610-DFE81511C190}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2412,7 +2725,7 @@
                   <a14:compatExt spid="_x0000_s6151"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46872D2D-892F-493B-A4E5-0621BC8DDD2F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2467,7 +2780,7 @@
                   <a14:compatExt spid="_x0000_s6152"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2606C49A-7072-4DE4-9E75-9422820F4572}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2522,7 +2835,7 @@
                   <a14:compatExt spid="_x0000_s6153"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B162803-9E01-4C8C-96A5-D46319FBC2E5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2577,7 +2890,7 @@
                   <a14:compatExt spid="_x0000_s6154"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F156F4D-3FC3-4996-99D1-88DFC9365F17}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2632,7 +2945,7 @@
                   <a14:compatExt spid="_x0000_s6155"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{986A0F2A-E445-41FC-B0ED-C8D6A9C6A03B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2687,7 +3000,7 @@
                   <a14:compatExt spid="_x0000_s6156"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7415564-3509-4A2C-86EE-42E7F8B5A971}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2742,7 +3055,7 @@
                   <a14:compatExt spid="_x0000_s6157"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C686D96-EDB8-4EEE-8D2B-192630384E95}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2797,7 +3110,7 @@
                   <a14:compatExt spid="_x0000_s6158"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F294A01F-BB45-46F4-BC1E-4D9F5E7FA4C6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2852,7 +3165,7 @@
                   <a14:compatExt spid="_x0000_s6159"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD02B113-C2CA-4157-8F51-E2E666B1CFCA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2907,7 +3220,7 @@
                   <a14:compatExt spid="_x0000_s6160"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DBCA523-42F0-4324-B649-D6237502150F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2962,7 +3275,7 @@
                   <a14:compatExt spid="_x0000_s6161"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD39294-2617-4EEB-8DB6-0A3E9278C68E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3017,7 +3330,7 @@
                   <a14:compatExt spid="_x0000_s6162"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28084456-1DC0-4F4C-8BB2-3267450BEF65}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3072,7 +3385,7 @@
                   <a14:compatExt spid="_x0000_s6163"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58E917FB-7CC4-40F4-BB36-F0983F10ABFF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3127,7 +3440,7 @@
                   <a14:compatExt spid="_x0000_s6164"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FF86C7-3931-487A-8721-CC6E523A9C0E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3182,7 +3495,7 @@
                   <a14:compatExt spid="_x0000_s6165"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D210CB9-9466-4079-ACDC-BC029EBBA202}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3237,7 +3550,7 @@
                   <a14:compatExt spid="_x0000_s6166"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3AABB89-F2BB-4DEC-973B-C5281609CD6E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3292,7 +3605,7 @@
                   <a14:compatExt spid="_x0000_s6167"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E92B4BB9-B954-4730-8B7F-BABFBEFD7609}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000017180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3347,7 +3660,7 @@
                   <a14:compatExt spid="_x0000_s6168"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CFCCFDE-5888-4881-8539-D58B6DF1A3F4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000018180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3402,7 +3715,7 @@
                   <a14:compatExt spid="_x0000_s6169"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B030C2E-077D-426D-9D18-8FB2A6101DB3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3457,7 +3770,7 @@
                   <a14:compatExt spid="_x0000_s6170"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{016BC77B-F76A-4AEB-B54F-D9AEBFEA8F7E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3512,7 +3825,7 @@
                   <a14:compatExt spid="_x0000_s6171"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80437AC9-FB98-4D07-8447-085E71CE8711}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3567,7 +3880,7 @@
                   <a14:compatExt spid="_x0000_s6172"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD88BC9-89DA-42A9-A270-DEA32F2F8919}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001C180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3622,7 +3935,7 @@
                   <a14:compatExt spid="_x0000_s6173"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{630E3856-CDEE-49FB-8F48-4EBE03843B76}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001D180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3677,7 +3990,7 @@
                   <a14:compatExt spid="_x0000_s6174"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30263D0-822F-4983-85BE-D5AAF8DE8E10}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3732,7 +4045,7 @@
                   <a14:compatExt spid="_x0000_s6175"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E12D0E-4273-4ED1-BEB4-F73503030BA3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001F180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3787,7 +4100,7 @@
                   <a14:compatExt spid="_x0000_s6176"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D40EB1B-71B5-4EF0-9BDF-0A10B2F98A59}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000020180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3842,7 +4155,7 @@
                   <a14:compatExt spid="_x0000_s6177"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86FA08C-61F6-4959-B275-6596C883CB4B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000021180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3897,7 +4210,7 @@
                   <a14:compatExt spid="_x0000_s6178"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77DA034-3875-47B7-A637-F8F7C39BA3AF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000022180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3952,7 +4265,7 @@
                   <a14:compatExt spid="_x0000_s6179"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D19E2A53-D058-474C-9523-102066A04766}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000023180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4007,7 +4320,7 @@
                   <a14:compatExt spid="_x0000_s6180"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51340831-CCD8-4F3C-98E5-25B3DD8C0BF4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000024180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4062,7 +4375,7 @@
                   <a14:compatExt spid="_x0000_s6181"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{407E1DBC-973F-4E2E-A5E6-AD76A5E75DD6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000025180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4117,7 +4430,7 @@
                   <a14:compatExt spid="_x0000_s6182"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92FE5B47-E2B1-42BA-BD19-36A24689545C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000026180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4172,7 +4485,7 @@
                   <a14:compatExt spid="_x0000_s6183"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D70BAA3A-ED71-4B84-8694-45D2B87228F3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000027180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4227,7 +4540,7 @@
                   <a14:compatExt spid="_x0000_s6184"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23155CFE-0BF3-4C89-BEB0-CDB61EB40377}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000028180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4282,7 +4595,7 @@
                   <a14:compatExt spid="_x0000_s6185"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9303AF3-AF45-4A0D-8D23-1E9600A97E72}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000029180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4337,7 +4650,7 @@
                   <a14:compatExt spid="_x0000_s6186"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{200AB2E8-D5E3-45FC-B161-D1A9C88F8429}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002A180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4392,7 +4705,7 @@
                   <a14:compatExt spid="_x0000_s6187"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B4B375-FEB6-4689-8E12-DDDD83A1028B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002B180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4447,7 +4760,7 @@
                   <a14:compatExt spid="_x0000_s6188"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{717C1530-7BEF-42CA-A39B-BD12915B2122}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002C180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4502,7 +4815,7 @@
                   <a14:compatExt spid="_x0000_s6189"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E533FE41-5D8A-485E-9BFB-42E162FB5E35}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002D180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4557,7 +4870,7 @@
                   <a14:compatExt spid="_x0000_s6190"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBED14B7-8021-4AF1-B1FD-3AED8BE8F153}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002E180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4612,7 +4925,7 @@
                   <a14:compatExt spid="_x0000_s6191"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAFA74E7-13F4-499E-914B-0F04BF2D10BA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00002F180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4667,7 +4980,7 @@
                   <a14:compatExt spid="_x0000_s6192"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6284D2DB-5A7A-42E5-8A61-FE733F2082D8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000030180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4722,7 +5035,7 @@
                   <a14:compatExt spid="_x0000_s6193"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937F0839-1976-4E83-8E9B-1CE05B39D942}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000031180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4777,7 +5090,7 @@
                   <a14:compatExt spid="_x0000_s6194"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D118C5E-FDFF-47FA-959A-DDC0B648EBCC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000032180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4832,7 +5145,7 @@
                   <a14:compatExt spid="_x0000_s6195"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F405D0DB-4068-45BB-B418-30D5FE7A0F3B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000033180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4887,7 +5200,7 @@
                   <a14:compatExt spid="_x0000_s6196"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74995C37-A9CB-455A-A2F6-55B6CB347ED5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000034180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4942,7 +5255,7 @@
                   <a14:compatExt spid="_x0000_s6197"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40BDD471-F898-426F-8C2A-5334514A5109}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000035180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4997,7 +5310,7 @@
                   <a14:compatExt spid="_x0000_s6198"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD8229A5-9DB8-4E9D-A3BF-A365485495A3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000036180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5052,7 +5365,7 @@
                   <a14:compatExt spid="_x0000_s6199"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B10DD5F-666D-401A-BF10-80AF4354DDE9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000037180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5107,7 +5420,7 @@
                   <a14:compatExt spid="_x0000_s6200"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{753F7391-A670-4054-BA4A-A98076138D89}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000038180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5162,7 +5475,7 @@
                   <a14:compatExt spid="_x0000_s6201"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92538F41-1934-413E-B3B9-FF64568F787C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000039180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5217,7 +5530,7 @@
                   <a14:compatExt spid="_x0000_s6202"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F18FBBB-FBD9-4B83-8098-C105150826AE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003A180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5272,7 +5585,7 @@
                   <a14:compatExt spid="_x0000_s6203"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78E3AF4-31E0-4E9D-8310-770C86F8290F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003B180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5327,7 +5640,7 @@
                   <a14:compatExt spid="_x0000_s6204"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CDB6A4-60A1-4C6E-8298-332FE61CCB81}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003C180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5382,7 +5695,7 @@
                   <a14:compatExt spid="_x0000_s6205"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD687C1-8B96-4DEB-A2DE-CC116FA519A9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003D180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5437,7 +5750,7 @@
                   <a14:compatExt spid="_x0000_s6206"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48BB6B33-AEAB-4B28-B766-9F83746CF76B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003E180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5492,7 +5805,7 @@
                   <a14:compatExt spid="_x0000_s6207"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D66E1F-1984-46E2-935E-10F0F7AD7655}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00003F180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5547,7 +5860,7 @@
                   <a14:compatExt spid="_x0000_s6208"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{036E162B-D4AF-4268-B838-E54504AEF8B9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000040180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5598,7 +5911,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69FEE9BE-59BC-4629-8926-EEE955CD67FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000042000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5651,7 +5964,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130DA1E9-0534-43D6-909D-3E46EB94989D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6029,12 +6342,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91151B7-2DCF-4F7D-BC47-6B1918253235}">
   <dimension ref="A6:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6051,41 +6364,41 @@
   <sheetData>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="62" t="s">
+      <c r="G7" s="60"/>
+      <c r="H7" s="55" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="61"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="63"/>
+      <c r="H8" s="56"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="57" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -6094,82 +6407,108 @@
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="4"/>
       <c r="C12" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="10" t="s">
+        <v>339</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -6179,7 +6518,7 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -6189,7 +6528,7 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -6199,7 +6538,7 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -6209,7 +6548,7 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -6219,7 +6558,7 @@
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -6229,7 +6568,7 @@
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="56"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -6240,7 +6579,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="57" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -6249,14 +6588,18 @@
       <c r="C24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
@@ -6264,13 +6607,15 @@
         <v>15</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="4" t="s">
         <v>16</v>
       </c>
@@ -6278,13 +6623,15 @@
         <v>70</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>349</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="10" t="s">
         <v>17</v>
       </c>
@@ -6296,7 +6643,7 @@
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="58"/>
       <c r="B28" s="10" t="s">
         <v>18</v>
       </c>
@@ -6308,7 +6655,7 @@
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="10" t="s">
         <v>19</v>
       </c>
@@ -6320,7 +6667,7 @@
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -6330,7 +6677,7 @@
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -6340,7 +6687,7 @@
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -6350,7 +6697,7 @@
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="58"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -6360,7 +6707,7 @@
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="56"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -6371,7 +6718,7 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="57" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -6380,36 +6727,44 @@
       <c r="C36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>348</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>350</v>
+      </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -6419,7 +6774,7 @@
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="58"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -6429,7 +6784,7 @@
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -6439,7 +6794,7 @@
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -6449,7 +6804,7 @@
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -6459,7 +6814,7 @@
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -6469,7 +6824,7 @@
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="56"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -6498,10 +6853,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C25103-627A-4C84-8867-1DDD13FC6560}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C94B25D-8882-4015-BA62-7BF2BFF41658}">
   <dimension ref="B2:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -6517,12 +6884,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
@@ -6665,13 +7032,13 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="68"/>
       <c r="H20">
         <v>3</v>
       </c>
@@ -6798,12 +7165,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4383F8F-93A0-4F92-84C9-77F517C7B449}">
   <dimension ref="C2:X48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6819,34 +7186,34 @@
   <sheetData>
     <row r="2" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="68" t="s">
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="71"/>
     </row>
     <row r="4" spans="3:24" ht="176.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="54" t="s">
         <v>82</v>
       </c>
       <c r="D4" s="30" t="s">
@@ -6910,6 +7277,13 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
         <v>102</v>
       </c>
@@ -6919,6 +7293,8 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
     </row>
     <row r="6" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
@@ -6933,6 +7309,13 @@
         <v>102</v>
       </c>
       <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
@@ -6942,6 +7325,8 @@
         <v>102</v>
       </c>
       <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
     </row>
     <row r="7" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -6954,6 +7339,13 @@
       <c r="H7" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -6961,21 +7353,38 @@
       <c r="T7" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
     </row>
     <row r="8" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>79</v>
       </c>
-      <c r="I8" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U8" t="s">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6983,6 +7392,25 @@
       <c r="C9" t="s">
         <v>80</v>
       </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
     </row>
     <row r="10" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
@@ -7016,22 +7444,22 @@
     </row>
     <row r="33" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="65" t="s">
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="68"/>
     </row>
     <row r="35" spans="3:15" ht="129" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="24" t="s">
@@ -7133,22 +7561,22 @@
     </row>
     <row r="43" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="65" t="s">
+      <c r="D44" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="65" t="s">
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
-      <c r="M44" s="66"/>
-      <c r="N44" s="66"/>
-      <c r="O44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="67"/>
+      <c r="N44" s="67"/>
+      <c r="O44" s="68"/>
     </row>
     <row r="45" spans="3:15" ht="176.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="24" t="s">
@@ -7209,19 +7637,265 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA1CFFF-6AD4-4B9C-A192-09C1243A106D}">
-  <dimension ref="A1"/>
+  <dimension ref="B7:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.5703125" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="104" t="s">
+        <v>326</v>
+      </c>
+      <c r="C7" s="104" t="s">
+        <v>327</v>
+      </c>
+      <c r="D7" s="104" t="s">
+        <v>326</v>
+      </c>
+      <c r="E7" s="104" t="s">
+        <v>328</v>
+      </c>
+      <c r="F7" s="104" t="s">
+        <v>326</v>
+      </c>
+      <c r="G7" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="104" t="s">
+        <v>304</v>
+      </c>
+      <c r="I7" s="104" t="s">
+        <v>305</v>
+      </c>
+      <c r="J7" s="104" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" s="104" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="98">
+        <v>1</v>
+      </c>
+      <c r="C8" s="98" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" s="98" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8" s="102" t="s">
+        <v>307</v>
+      </c>
+      <c r="F8" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="G8" s="98" t="s">
+        <v>308</v>
+      </c>
+      <c r="H8" s="98" t="s">
+        <v>312</v>
+      </c>
+      <c r="I8" s="97" t="s">
+        <v>313</v>
+      </c>
+      <c r="J8" s="99" t="s">
+        <v>314</v>
+      </c>
+      <c r="L8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="103" t="s">
+        <v>332</v>
+      </c>
+      <c r="G9" s="98" t="s">
+        <v>310</v>
+      </c>
+      <c r="I9" s="97" t="s">
+        <v>337</v>
+      </c>
+      <c r="J9" s="99"/>
+      <c r="L9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103" t="s">
+        <v>334</v>
+      </c>
+      <c r="G10" s="98" t="s">
+        <v>311</v>
+      </c>
+      <c r="L10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="102" t="s">
+        <v>330</v>
+      </c>
+      <c r="E11" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="103" t="s">
+        <v>335</v>
+      </c>
+      <c r="G11" s="98" t="s">
+        <v>309</v>
+      </c>
+      <c r="H11" s="98" t="s">
+        <v>322</v>
+      </c>
+      <c r="I11" s="97" t="s">
+        <v>323</v>
+      </c>
+      <c r="J11" s="99" t="s">
+        <v>324</v>
+      </c>
+      <c r="L11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="103" t="s">
+        <v>336</v>
+      </c>
+      <c r="G12" s="98" t="s">
+        <v>310</v>
+      </c>
+      <c r="I12" s="97" t="s">
+        <v>325</v>
+      </c>
+      <c r="J12" s="99" t="s">
+        <v>321</v>
+      </c>
+      <c r="L12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="103" t="s">
+        <v>333</v>
+      </c>
+      <c r="G13" s="98" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D11:D13"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:L12">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"NOK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8:L12" xr:uid="{E8BCC25E-C255-4F4F-B7A8-8FF0D84E7582}">
+      <formula1>"OK, NOK, Pendente, Bloqueado"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19ECAE6A-146F-435E-844D-4EBEE2FE3779}">
+  <dimension ref="E4:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H4" s="101" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E5" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="100" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="95" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="94" t="s">
+        <v>316</v>
+      </c>
+      <c r="H7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2EC9A0-AD22-48CB-B5B5-4407E3F5381F}">
   <dimension ref="B1:L290"/>
   <sheetViews>
@@ -8291,13 +8965,13 @@
       <c r="E12" s="42">
         <v>5</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
       <c r="K12" s="42" t="s">
         <v>129</v>
       </c>
@@ -8312,13 +8986,13 @@
       <c r="E13" s="42">
         <v>6</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
       <c r="K13" s="42" t="s">
         <v>131</v>
       </c>
@@ -8333,13 +9007,13 @@
       <c r="E14" s="42">
         <v>7</v>
       </c>
-      <c r="F14" s="71" t="s">
+      <c r="F14" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
       <c r="K14" s="42" t="s">
         <v>134</v>
       </c>
@@ -8356,13 +9030,13 @@
       <c r="E15" s="42">
         <v>8</v>
       </c>
-      <c r="F15" s="71" t="s">
+      <c r="F15" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
       <c r="K15" s="42" t="s">
         <v>137</v>
       </c>
@@ -8377,13 +9051,13 @@
       <c r="E16" s="42">
         <v>9</v>
       </c>
-      <c r="F16" s="71" t="s">
+      <c r="F16" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="42" t="s">
         <v>139</v>
       </c>
@@ -8398,13 +9072,13 @@
       <c r="E17" s="42">
         <v>10</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
       <c r="K17" s="42" t="s">
         <v>141</v>
       </c>
@@ -8419,13 +9093,13 @@
       <c r="E18" s="42">
         <v>11</v>
       </c>
-      <c r="F18" s="71" t="s">
+      <c r="F18" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
       <c r="K18" s="42" t="s">
         <v>143</v>
       </c>
@@ -8440,13 +9114,13 @@
       <c r="E19" s="42">
         <v>12</v>
       </c>
-      <c r="F19" s="71" t="s">
+      <c r="F19" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
       <c r="K19" s="42" t="s">
         <v>131</v>
       </c>
@@ -8461,13 +9135,13 @@
       <c r="E20" s="42">
         <v>13</v>
       </c>
-      <c r="F20" s="71" t="s">
+      <c r="F20" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
       <c r="K20" s="42" t="s">
         <v>131</v>
       </c>
@@ -8482,13 +9156,13 @@
       <c r="E21" s="42">
         <v>14</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
       <c r="K21" s="42" t="s">
         <v>131</v>
       </c>
@@ -8503,13 +9177,13 @@
       <c r="E22" s="42">
         <v>15</v>
       </c>
-      <c r="F22" s="71" t="s">
+      <c r="F22" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
       <c r="K22" s="46" t="s">
         <v>148</v>
       </c>
@@ -8524,13 +9198,13 @@
       <c r="E23" s="42">
         <v>16</v>
       </c>
-      <c r="F23" s="71" t="s">
+      <c r="F23" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
       <c r="K23" s="42" t="s">
         <v>150</v>
       </c>
@@ -8545,13 +9219,13 @@
       <c r="E24" s="42">
         <v>17</v>
       </c>
-      <c r="F24" s="71" t="s">
+      <c r="F24" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
       <c r="K24" s="42" t="s">
         <v>150</v>
       </c>
@@ -8566,13 +9240,13 @@
       <c r="E25" s="42">
         <v>18</v>
       </c>
-      <c r="F25" s="71" t="s">
+      <c r="F25" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
       <c r="K25" s="42" t="s">
         <v>150</v>
       </c>
@@ -8587,13 +9261,13 @@
       <c r="E26" s="42">
         <v>19</v>
       </c>
-      <c r="F26" s="71" t="s">
+      <c r="F26" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
       <c r="K26" s="42" t="s">
         <v>150</v>
       </c>
@@ -8608,13 +9282,13 @@
       <c r="E27" s="42">
         <v>20</v>
       </c>
-      <c r="F27" s="71" t="s">
+      <c r="F27" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
       <c r="K27" s="42" t="s">
         <v>150</v>
       </c>
@@ -8629,13 +9303,13 @@
       <c r="E28" s="42">
         <v>21</v>
       </c>
-      <c r="F28" s="71" t="s">
+      <c r="F28" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
       <c r="K28" s="42" t="s">
         <v>150</v>
       </c>
@@ -8650,13 +9324,13 @@
       <c r="E29" s="42">
         <v>22</v>
       </c>
-      <c r="F29" s="71" t="s">
+      <c r="F29" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
       <c r="K29" s="42" t="s">
         <v>150</v>
       </c>
@@ -8671,13 +9345,13 @@
       <c r="E30" s="42">
         <v>23</v>
       </c>
-      <c r="F30" s="71" t="s">
+      <c r="F30" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
       <c r="K30" s="42" t="s">
         <v>158</v>
       </c>
@@ -8692,13 +9366,13 @@
       <c r="E31" s="42">
         <v>24</v>
       </c>
-      <c r="F31" s="71" t="s">
+      <c r="F31" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
       <c r="K31" s="42" t="s">
         <v>160</v>
       </c>
@@ -8713,13 +9387,13 @@
       <c r="E32" s="42">
         <v>25</v>
       </c>
-      <c r="F32" s="71" t="s">
+      <c r="F32" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
       <c r="K32" s="42" t="s">
         <v>162</v>
       </c>
@@ -8734,13 +9408,13 @@
       <c r="E33" s="42">
         <v>26</v>
       </c>
-      <c r="F33" s="71" t="s">
+      <c r="F33" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
       <c r="K33" s="42" t="s">
         <v>131</v>
       </c>
@@ -8755,13 +9429,13 @@
       <c r="E34" s="42">
         <v>27</v>
       </c>
-      <c r="F34" s="71" t="s">
+      <c r="F34" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
       <c r="K34" s="42" t="s">
         <v>164</v>
       </c>
@@ -8776,13 +9450,13 @@
       <c r="E35" s="42">
         <v>28</v>
       </c>
-      <c r="F35" s="71" t="s">
+      <c r="F35" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
       <c r="K35" s="42" t="s">
         <v>166</v>
       </c>
@@ -8799,13 +9473,13 @@
       <c r="E36" s="42">
         <v>29</v>
       </c>
-      <c r="F36" s="71" t="s">
+      <c r="F36" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
       <c r="K36" s="42" t="s">
         <v>169</v>
       </c>
@@ -8820,13 +9494,13 @@
       <c r="E37" s="42">
         <v>30</v>
       </c>
-      <c r="F37" s="71" t="s">
+      <c r="F37" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
       <c r="K37" s="42" t="s">
         <v>169</v>
       </c>
@@ -8841,13 +9515,13 @@
       <c r="E38" s="42">
         <v>31</v>
       </c>
-      <c r="F38" s="71" t="s">
+      <c r="F38" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
       <c r="K38" s="42" t="s">
         <v>169</v>
       </c>
@@ -8862,13 +9536,13 @@
       <c r="E39" s="42">
         <v>32</v>
       </c>
-      <c r="F39" s="71" t="s">
+      <c r="F39" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
       <c r="K39" s="42" t="s">
         <v>169</v>
       </c>
@@ -8883,13 +9557,13 @@
       <c r="E40" s="42">
         <v>33</v>
       </c>
-      <c r="F40" s="71" t="s">
+      <c r="F40" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
       <c r="K40" s="42" t="s">
         <v>169</v>
       </c>
@@ -8904,13 +9578,13 @@
       <c r="E41" s="42">
         <v>34</v>
       </c>
-      <c r="F41" s="71" t="s">
+      <c r="F41" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
       <c r="K41" s="42" t="s">
         <v>169</v>
       </c>
@@ -8925,13 +9599,13 @@
       <c r="E42" s="42">
         <v>35</v>
       </c>
-      <c r="F42" s="71" t="s">
+      <c r="F42" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
       <c r="K42" s="42" t="s">
         <v>169</v>
       </c>
@@ -8946,13 +9620,13 @@
       <c r="E43" s="42">
         <v>36</v>
       </c>
-      <c r="F43" s="71" t="s">
+      <c r="F43" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
       <c r="K43" s="42" t="s">
         <v>177</v>
       </c>
@@ -8967,13 +9641,13 @@
       <c r="E44" s="42">
         <v>37</v>
       </c>
-      <c r="F44" s="71" t="s">
+      <c r="F44" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
       <c r="K44" s="42" t="s">
         <v>131</v>
       </c>
@@ -8988,13 +9662,13 @@
       <c r="E45" s="42">
         <v>38</v>
       </c>
-      <c r="F45" s="71" t="s">
+      <c r="F45" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
       <c r="K45" s="42" t="s">
         <v>177</v>
       </c>
@@ -9009,13 +9683,13 @@
       <c r="E46" s="42">
         <v>39</v>
       </c>
-      <c r="F46" s="71" t="s">
+      <c r="F46" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
       <c r="K46" s="42" t="s">
         <v>141</v>
       </c>
@@ -9032,13 +9706,13 @@
       <c r="E47" s="42">
         <v>40</v>
       </c>
-      <c r="F47" s="71" t="s">
+      <c r="F47" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
       <c r="K47" s="42" t="s">
         <v>182</v>
       </c>
@@ -9053,13 +9727,13 @@
       <c r="E48" s="42">
         <v>41</v>
       </c>
-      <c r="F48" s="71" t="s">
+      <c r="F48" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
       <c r="K48" s="42" t="s">
         <v>182</v>
       </c>
@@ -9074,13 +9748,13 @@
       <c r="E49" s="42">
         <v>42</v>
       </c>
-      <c r="F49" s="71" t="s">
+      <c r="F49" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
       <c r="K49" s="42" t="s">
         <v>131</v>
       </c>
@@ -9095,13 +9769,13 @@
       <c r="E50" s="42">
         <v>43</v>
       </c>
-      <c r="F50" s="71" t="s">
+      <c r="F50" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
       <c r="K50" s="42" t="s">
         <v>131</v>
       </c>
@@ -9116,13 +9790,13 @@
       <c r="E51" s="42">
         <v>44</v>
       </c>
-      <c r="F51" s="71" t="s">
+      <c r="F51" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
       <c r="K51" s="42" t="s">
         <v>185</v>
       </c>
@@ -9137,13 +9811,13 @@
       <c r="E52" s="42">
         <v>45</v>
       </c>
-      <c r="F52" s="72" t="s">
+      <c r="F52" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
+      <c r="G52" s="92"/>
+      <c r="H52" s="92"/>
+      <c r="I52" s="92"/>
+      <c r="J52" s="92"/>
       <c r="K52" s="42" t="s">
         <v>187</v>
       </c>
@@ -9158,13 +9832,13 @@
       <c r="E53" s="42">
         <v>46</v>
       </c>
-      <c r="F53" s="71" t="s">
+      <c r="F53" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="G53" s="71"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="71"/>
-      <c r="J53" s="71"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
       <c r="K53" s="42" t="s">
         <v>131</v>
       </c>
@@ -9179,13 +9853,13 @@
       <c r="E54" s="42">
         <v>47</v>
       </c>
-      <c r="F54" s="71" t="s">
+      <c r="F54" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="72"/>
+      <c r="J54" s="72"/>
       <c r="K54" s="42" t="s">
         <v>141</v>
       </c>
@@ -9202,13 +9876,13 @@
       <c r="E55" s="42">
         <v>48</v>
       </c>
-      <c r="F55" s="71" t="s">
+      <c r="F55" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="G55" s="71"/>
-      <c r="H55" s="71"/>
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
       <c r="K55" s="42" t="s">
         <v>191</v>
       </c>
@@ -9223,13 +9897,13 @@
       <c r="E56" s="42">
         <v>49</v>
       </c>
-      <c r="F56" s="71" t="s">
+      <c r="F56" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="G56" s="71"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="71"/>
-      <c r="J56" s="71"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="72"/>
+      <c r="J56" s="72"/>
       <c r="K56" s="42" t="s">
         <v>193</v>
       </c>
@@ -9244,13 +9918,13 @@
       <c r="E57" s="42">
         <v>50</v>
       </c>
-      <c r="F57" s="71" t="s">
+      <c r="F57" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="G57" s="71"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="71"/>
-      <c r="J57" s="71"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="72"/>
+      <c r="I57" s="72"/>
+      <c r="J57" s="72"/>
       <c r="K57" s="42" t="s">
         <v>193</v>
       </c>
@@ -9265,13 +9939,13 @@
       <c r="E58" s="42">
         <v>51</v>
       </c>
-      <c r="F58" s="71" t="s">
+      <c r="F58" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="71"/>
-      <c r="J58" s="71"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="72"/>
+      <c r="J58" s="72"/>
       <c r="K58" s="42" t="s">
         <v>193</v>
       </c>
@@ -9286,13 +9960,13 @@
       <c r="E59" s="42">
         <v>52</v>
       </c>
-      <c r="F59" s="71" t="s">
+      <c r="F59" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="G59" s="71"/>
-      <c r="H59" s="71"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="72"/>
       <c r="K59" s="42" t="s">
         <v>193</v>
       </c>
@@ -9307,13 +9981,13 @@
       <c r="E60" s="42">
         <v>53</v>
       </c>
-      <c r="F60" s="71" t="s">
+      <c r="F60" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="G60" s="71"/>
-      <c r="H60" s="71"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="71"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="72"/>
       <c r="K60" s="42" t="s">
         <v>193</v>
       </c>
@@ -9328,13 +10002,13 @@
       <c r="E61" s="42">
         <v>54</v>
       </c>
-      <c r="F61" s="71" t="s">
+      <c r="F61" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="71"/>
-      <c r="J61" s="71"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="72"/>
       <c r="K61" s="42" t="s">
         <v>193</v>
       </c>
@@ -9349,13 +10023,13 @@
       <c r="E62" s="42">
         <v>55</v>
       </c>
-      <c r="F62" s="71" t="s">
+      <c r="F62" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="71"/>
-      <c r="J62" s="71"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
       <c r="K62" s="42" t="s">
         <v>193</v>
       </c>
@@ -9370,13 +10044,13 @@
       <c r="E63" s="42">
         <v>56</v>
       </c>
-      <c r="F63" s="71" t="s">
+      <c r="F63" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="71"/>
-      <c r="J63" s="71"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
       <c r="K63" s="42" t="s">
         <v>131</v>
       </c>
@@ -9393,13 +10067,13 @@
       <c r="E64" s="42">
         <v>57</v>
       </c>
-      <c r="F64" s="71" t="s">
+      <c r="F64" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="71"/>
-      <c r="J64" s="71"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="72"/>
       <c r="K64" s="42" t="s">
         <v>187</v>
       </c>
@@ -9414,13 +10088,13 @@
       <c r="E65" s="42">
         <v>58</v>
       </c>
-      <c r="F65" s="71" t="s">
+      <c r="F65" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="71"/>
-      <c r="J65" s="71"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="72"/>
+      <c r="J65" s="72"/>
       <c r="K65" s="42" t="s">
         <v>203</v>
       </c>
@@ -9435,13 +10109,13 @@
       <c r="E66" s="42">
         <v>59</v>
       </c>
-      <c r="F66" s="71" t="s">
+      <c r="F66" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="G66" s="71"/>
-      <c r="H66" s="71"/>
-      <c r="I66" s="71"/>
-      <c r="J66" s="71"/>
+      <c r="G66" s="72"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="72"/>
+      <c r="J66" s="72"/>
       <c r="K66" s="42" t="s">
         <v>203</v>
       </c>
@@ -9456,13 +10130,13 @@
       <c r="E67" s="42">
         <v>60</v>
       </c>
-      <c r="F67" s="71" t="s">
+      <c r="F67" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="G67" s="71"/>
-      <c r="H67" s="71"/>
-      <c r="I67" s="71"/>
-      <c r="J67" s="71"/>
+      <c r="G67" s="72"/>
+      <c r="H67" s="72"/>
+      <c r="I67" s="72"/>
+      <c r="J67" s="72"/>
       <c r="K67" s="47" t="s">
         <v>204</v>
       </c>
@@ -9477,13 +10151,13 @@
       <c r="E68" s="42">
         <v>61</v>
       </c>
-      <c r="F68" s="71" t="s">
+      <c r="F68" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
-      <c r="I68" s="71"/>
-      <c r="J68" s="71"/>
+      <c r="G68" s="72"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="72"/>
+      <c r="J68" s="72"/>
       <c r="K68" s="42" t="s">
         <v>131</v>
       </c>
@@ -9502,13 +10176,13 @@
       <c r="E69" s="42">
         <v>62</v>
       </c>
-      <c r="F69" s="71" t="s">
+      <c r="F69" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="G69" s="71"/>
-      <c r="H69" s="71"/>
-      <c r="I69" s="71"/>
-      <c r="J69" s="71"/>
+      <c r="G69" s="72"/>
+      <c r="H69" s="72"/>
+      <c r="I69" s="72"/>
+      <c r="J69" s="72"/>
       <c r="K69" s="42" t="s">
         <v>208</v>
       </c>
@@ -9525,13 +10199,13 @@
       <c r="E70" s="42">
         <v>63</v>
       </c>
-      <c r="F70" s="71" t="s">
+      <c r="F70" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="G70" s="71"/>
-      <c r="H70" s="71"/>
-      <c r="I70" s="71"/>
-      <c r="J70" s="71"/>
+      <c r="G70" s="72"/>
+      <c r="H70" s="72"/>
+      <c r="I70" s="72"/>
+      <c r="J70" s="72"/>
       <c r="K70" s="42" t="s">
         <v>187</v>
       </c>
@@ -9546,13 +10220,13 @@
       <c r="E71" s="42">
         <v>64</v>
       </c>
-      <c r="F71" s="71" t="s">
+      <c r="F71" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="G71" s="71"/>
-      <c r="H71" s="71"/>
-      <c r="I71" s="71"/>
-      <c r="J71" s="71"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="72"/>
+      <c r="I71" s="72"/>
+      <c r="J71" s="72"/>
       <c r="K71" s="42" t="s">
         <v>187</v>
       </c>
@@ -9569,13 +10243,13 @@
       <c r="E72" s="42">
         <v>65</v>
       </c>
-      <c r="F72" s="71" t="s">
+      <c r="F72" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="71"/>
-      <c r="J72" s="71"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="72"/>
+      <c r="J72" s="72"/>
       <c r="K72" s="42" t="s">
         <v>214</v>
       </c>
@@ -9590,13 +10264,13 @@
       <c r="E73" s="42">
         <v>66</v>
       </c>
-      <c r="F73" s="71" t="s">
+      <c r="F73" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="G73" s="71"/>
-      <c r="H73" s="71"/>
-      <c r="I73" s="71"/>
-      <c r="J73" s="71"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="72"/>
       <c r="K73" s="42" t="s">
         <v>216</v>
       </c>
@@ -9611,13 +10285,13 @@
       <c r="E74" s="42">
         <v>67</v>
       </c>
-      <c r="F74" s="71" t="s">
+      <c r="F74" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
-      <c r="I74" s="71"/>
-      <c r="J74" s="71"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="72"/>
+      <c r="I74" s="72"/>
+      <c r="J74" s="72"/>
       <c r="K74" s="42" t="s">
         <v>187</v>
       </c>
@@ -9634,13 +10308,13 @@
       <c r="E75" s="42">
         <v>68</v>
       </c>
-      <c r="F75" s="71" t="s">
+      <c r="F75" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="G75" s="71"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="71"/>
-      <c r="J75" s="71"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="72"/>
+      <c r="I75" s="72"/>
+      <c r="J75" s="72"/>
       <c r="K75" s="42" t="s">
         <v>220</v>
       </c>
@@ -9655,13 +10329,13 @@
       <c r="E76" s="42">
         <v>69</v>
       </c>
-      <c r="F76" s="71" t="s">
+      <c r="F76" s="72" t="s">
         <v>221</v>
       </c>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
-      <c r="I76" s="71"/>
-      <c r="J76" s="71"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="72"/>
+      <c r="J76" s="72"/>
       <c r="K76" s="42" t="s">
         <v>222</v>
       </c>
@@ -9676,13 +10350,13 @@
       <c r="E77" s="42">
         <v>70</v>
       </c>
-      <c r="F77" s="71" t="s">
+      <c r="F77" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="G77" s="71"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="71"/>
-      <c r="J77" s="71"/>
+      <c r="G77" s="72"/>
+      <c r="H77" s="72"/>
+      <c r="I77" s="72"/>
+      <c r="J77" s="72"/>
       <c r="K77" s="42" t="s">
         <v>222</v>
       </c>
@@ -9701,13 +10375,13 @@
       <c r="E78" s="42">
         <v>71</v>
       </c>
-      <c r="F78" s="71" t="s">
+      <c r="F78" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="G78" s="71"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="71"/>
-      <c r="J78" s="71"/>
+      <c r="G78" s="72"/>
+      <c r="H78" s="72"/>
+      <c r="I78" s="72"/>
+      <c r="J78" s="72"/>
       <c r="K78" s="42" t="s">
         <v>227</v>
       </c>
@@ -9722,13 +10396,13 @@
       <c r="E79" s="42">
         <v>72</v>
       </c>
-      <c r="F79" s="71" t="s">
+      <c r="F79" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="G79" s="71"/>
-      <c r="H79" s="71"/>
-      <c r="I79" s="71"/>
-      <c r="J79" s="71"/>
+      <c r="G79" s="72"/>
+      <c r="H79" s="72"/>
+      <c r="I79" s="72"/>
+      <c r="J79" s="72"/>
       <c r="K79" s="42" t="s">
         <v>227</v>
       </c>
@@ -9745,13 +10419,13 @@
       <c r="E80" s="42">
         <v>73</v>
       </c>
-      <c r="F80" s="71" t="s">
+      <c r="F80" s="72" t="s">
         <v>230</v>
       </c>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="71"/>
-      <c r="J80" s="71"/>
+      <c r="G80" s="72"/>
+      <c r="H80" s="72"/>
+      <c r="I80" s="72"/>
+      <c r="J80" s="72"/>
       <c r="K80" s="42" t="s">
         <v>231</v>
       </c>
@@ -9766,13 +10440,13 @@
       <c r="E81" s="42">
         <v>74</v>
       </c>
-      <c r="F81" s="71" t="s">
+      <c r="F81" s="72" t="s">
         <v>232</v>
       </c>
-      <c r="G81" s="71"/>
-      <c r="H81" s="71"/>
-      <c r="I81" s="71"/>
-      <c r="J81" s="71"/>
+      <c r="G81" s="72"/>
+      <c r="H81" s="72"/>
+      <c r="I81" s="72"/>
+      <c r="J81" s="72"/>
       <c r="K81" s="42" t="s">
         <v>233</v>
       </c>
@@ -9787,13 +10461,13 @@
       <c r="E82" s="42">
         <v>75</v>
       </c>
-      <c r="F82" s="71" t="s">
+      <c r="F82" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="G82" s="71"/>
-      <c r="H82" s="71"/>
-      <c r="I82" s="71"/>
-      <c r="J82" s="71"/>
+      <c r="G82" s="72"/>
+      <c r="H82" s="72"/>
+      <c r="I82" s="72"/>
+      <c r="J82" s="72"/>
       <c r="K82" s="42" t="s">
         <v>235</v>
       </c>
@@ -9810,13 +10484,13 @@
       <c r="E83" s="42">
         <v>76</v>
       </c>
-      <c r="F83" s="71" t="s">
+      <c r="F83" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="G83" s="71"/>
-      <c r="H83" s="71"/>
-      <c r="I83" s="71"/>
-      <c r="J83" s="71"/>
+      <c r="G83" s="72"/>
+      <c r="H83" s="72"/>
+      <c r="I83" s="72"/>
+      <c r="J83" s="72"/>
       <c r="K83" s="42" t="s">
         <v>238</v>
       </c>
@@ -9831,13 +10505,13 @@
       <c r="E84" s="42">
         <v>77</v>
       </c>
-      <c r="F84" s="71" t="s">
+      <c r="F84" s="72" t="s">
         <v>239</v>
       </c>
-      <c r="G84" s="71"/>
-      <c r="H84" s="71"/>
-      <c r="I84" s="71"/>
-      <c r="J84" s="71"/>
+      <c r="G84" s="72"/>
+      <c r="H84" s="72"/>
+      <c r="I84" s="72"/>
+      <c r="J84" s="72"/>
       <c r="K84" s="42" t="s">
         <v>240</v>
       </c>
@@ -9852,13 +10526,13 @@
       <c r="E85" s="42">
         <v>78</v>
       </c>
-      <c r="F85" s="71" t="s">
+      <c r="F85" s="72" t="s">
         <v>241</v>
       </c>
-      <c r="G85" s="71"/>
-      <c r="H85" s="71"/>
-      <c r="I85" s="71"/>
-      <c r="J85" s="71"/>
+      <c r="G85" s="72"/>
+      <c r="H85" s="72"/>
+      <c r="I85" s="72"/>
+      <c r="J85" s="72"/>
       <c r="K85" s="42" t="s">
         <v>242</v>
       </c>
@@ -9873,13 +10547,13 @@
       <c r="E86" s="42">
         <v>79</v>
       </c>
-      <c r="F86" s="71" t="s">
+      <c r="F86" s="72" t="s">
         <v>243</v>
       </c>
-      <c r="G86" s="71"/>
-      <c r="H86" s="71"/>
-      <c r="I86" s="71"/>
-      <c r="J86" s="71"/>
+      <c r="G86" s="72"/>
+      <c r="H86" s="72"/>
+      <c r="I86" s="72"/>
+      <c r="J86" s="72"/>
       <c r="K86" s="42" t="s">
         <v>244</v>
       </c>
@@ -9894,13 +10568,13 @@
       <c r="E87" s="42">
         <v>80</v>
       </c>
-      <c r="F87" s="71" t="s">
+      <c r="F87" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="G87" s="71"/>
-      <c r="H87" s="71"/>
-      <c r="I87" s="71"/>
-      <c r="J87" s="71"/>
+      <c r="G87" s="72"/>
+      <c r="H87" s="72"/>
+      <c r="I87" s="72"/>
+      <c r="J87" s="72"/>
       <c r="K87" s="42" t="s">
         <v>246</v>
       </c>
@@ -9915,13 +10589,13 @@
       <c r="E88" s="42">
         <v>81</v>
       </c>
-      <c r="F88" s="71" t="s">
+      <c r="F88" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="G88" s="71"/>
-      <c r="H88" s="71"/>
-      <c r="I88" s="71"/>
-      <c r="J88" s="71"/>
+      <c r="G88" s="72"/>
+      <c r="H88" s="72"/>
+      <c r="I88" s="72"/>
+      <c r="J88" s="72"/>
       <c r="K88" s="42" t="s">
         <v>248</v>
       </c>
@@ -9938,13 +10612,13 @@
       <c r="E89" s="42">
         <v>82</v>
       </c>
-      <c r="F89" s="71" t="s">
+      <c r="F89" s="72" t="s">
         <v>250</v>
       </c>
-      <c r="G89" s="71"/>
-      <c r="H89" s="71"/>
-      <c r="I89" s="71"/>
-      <c r="J89" s="71"/>
+      <c r="G89" s="72"/>
+      <c r="H89" s="72"/>
+      <c r="I89" s="72"/>
+      <c r="J89" s="72"/>
       <c r="K89" s="42" t="s">
         <v>251</v>
       </c>
@@ -9959,13 +10633,13 @@
       <c r="E90" s="42">
         <v>83</v>
       </c>
-      <c r="F90" s="71" t="s">
+      <c r="F90" s="72" t="s">
         <v>252</v>
       </c>
-      <c r="G90" s="71"/>
-      <c r="H90" s="71"/>
-      <c r="I90" s="71"/>
-      <c r="J90" s="71"/>
+      <c r="G90" s="72"/>
+      <c r="H90" s="72"/>
+      <c r="I90" s="72"/>
+      <c r="J90" s="72"/>
       <c r="K90" s="42" t="s">
         <v>253</v>
       </c>
@@ -9980,13 +10654,13 @@
       <c r="E91" s="42">
         <v>84</v>
       </c>
-      <c r="F91" s="71" t="s">
+      <c r="F91" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="G91" s="71"/>
-      <c r="H91" s="71"/>
-      <c r="I91" s="71"/>
-      <c r="J91" s="71"/>
+      <c r="G91" s="72"/>
+      <c r="H91" s="72"/>
+      <c r="I91" s="72"/>
+      <c r="J91" s="72"/>
       <c r="K91" s="42" t="s">
         <v>255</v>
       </c>
@@ -10003,13 +10677,13 @@
       <c r="E92" s="42">
         <v>85</v>
       </c>
-      <c r="F92" s="71" t="s">
+      <c r="F92" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="G92" s="71"/>
-      <c r="H92" s="71"/>
-      <c r="I92" s="71"/>
-      <c r="J92" s="71"/>
+      <c r="G92" s="72"/>
+      <c r="H92" s="72"/>
+      <c r="I92" s="72"/>
+      <c r="J92" s="72"/>
       <c r="K92" s="42" t="s">
         <v>258</v>
       </c>
@@ -10024,13 +10698,13 @@
       <c r="E93" s="42">
         <v>86</v>
       </c>
-      <c r="F93" s="71" t="s">
+      <c r="F93" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="G93" s="71"/>
-      <c r="H93" s="71"/>
-      <c r="I93" s="71"/>
-      <c r="J93" s="71"/>
+      <c r="G93" s="72"/>
+      <c r="H93" s="72"/>
+      <c r="I93" s="72"/>
+      <c r="J93" s="72"/>
       <c r="K93" s="42" t="s">
         <v>260</v>
       </c>
@@ -10045,13 +10719,13 @@
       <c r="E94" s="42">
         <v>87</v>
       </c>
-      <c r="F94" s="71" t="s">
+      <c r="F94" s="72" t="s">
         <v>261</v>
       </c>
-      <c r="G94" s="71"/>
-      <c r="H94" s="71"/>
-      <c r="I94" s="71"/>
-      <c r="J94" s="71"/>
+      <c r="G94" s="72"/>
+      <c r="H94" s="72"/>
+      <c r="I94" s="72"/>
+      <c r="J94" s="72"/>
       <c r="K94" s="42" t="s">
         <v>262</v>
       </c>
@@ -10068,13 +10742,13 @@
       <c r="E95" s="42">
         <v>88</v>
       </c>
-      <c r="F95" s="71" t="s">
+      <c r="F95" s="72" t="s">
         <v>264</v>
       </c>
-      <c r="G95" s="71"/>
-      <c r="H95" s="71"/>
-      <c r="I95" s="71"/>
-      <c r="J95" s="71"/>
+      <c r="G95" s="72"/>
+      <c r="H95" s="72"/>
+      <c r="I95" s="72"/>
+      <c r="J95" s="72"/>
       <c r="K95" s="42" t="s">
         <v>265</v>
       </c>
@@ -10093,13 +10767,13 @@
       <c r="E96" s="42">
         <v>89</v>
       </c>
-      <c r="F96" s="71" t="s">
+      <c r="F96" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="G96" s="71"/>
-      <c r="H96" s="71"/>
-      <c r="I96" s="71"/>
-      <c r="J96" s="71"/>
+      <c r="G96" s="72"/>
+      <c r="H96" s="72"/>
+      <c r="I96" s="72"/>
+      <c r="J96" s="72"/>
       <c r="K96" s="50" t="s">
         <v>269</v>
       </c>
@@ -10116,13 +10790,13 @@
       <c r="E97" s="42">
         <v>90</v>
       </c>
-      <c r="F97" s="71" t="s">
+      <c r="F97" s="72" t="s">
         <v>270</v>
       </c>
-      <c r="G97" s="71"/>
-      <c r="H97" s="71"/>
-      <c r="I97" s="71"/>
-      <c r="J97" s="71"/>
+      <c r="G97" s="72"/>
+      <c r="H97" s="72"/>
+      <c r="I97" s="72"/>
+      <c r="J97" s="72"/>
       <c r="K97" s="50" t="s">
         <v>271</v>
       </c>
@@ -10141,13 +10815,13 @@
       <c r="E98" s="42">
         <v>91</v>
       </c>
-      <c r="F98" s="71" t="s">
+      <c r="F98" s="72" t="s">
         <v>273</v>
       </c>
-      <c r="G98" s="71"/>
-      <c r="H98" s="71"/>
-      <c r="I98" s="71"/>
-      <c r="J98" s="71"/>
+      <c r="G98" s="72"/>
+      <c r="H98" s="72"/>
+      <c r="I98" s="72"/>
+      <c r="J98" s="72"/>
       <c r="K98" s="50" t="s">
         <v>274</v>
       </c>
@@ -10166,13 +10840,13 @@
       <c r="E99" s="42">
         <v>92</v>
       </c>
-      <c r="F99" s="71" t="s">
+      <c r="F99" s="72" t="s">
         <v>276</v>
       </c>
-      <c r="G99" s="71"/>
-      <c r="H99" s="71"/>
-      <c r="I99" s="71"/>
-      <c r="J99" s="71"/>
+      <c r="G99" s="72"/>
+      <c r="H99" s="72"/>
+      <c r="I99" s="72"/>
+      <c r="J99" s="72"/>
       <c r="K99" s="50" t="s">
         <v>277</v>
       </c>
@@ -10191,13 +10865,13 @@
       <c r="E100" s="42">
         <v>93</v>
       </c>
-      <c r="F100" s="71" t="s">
+      <c r="F100" s="72" t="s">
         <v>279</v>
       </c>
-      <c r="G100" s="71"/>
-      <c r="H100" s="71"/>
-      <c r="I100" s="71"/>
-      <c r="J100" s="71"/>
+      <c r="G100" s="72"/>
+      <c r="H100" s="72"/>
+      <c r="I100" s="72"/>
+      <c r="J100" s="72"/>
       <c r="K100" s="50" t="s">
         <v>280</v>
       </c>
@@ -10212,13 +10886,13 @@
       <c r="E101" s="42">
         <v>94</v>
       </c>
-      <c r="F101" s="71" t="s">
+      <c r="F101" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="G101" s="71"/>
-      <c r="H101" s="71"/>
-      <c r="I101" s="71"/>
-      <c r="J101" s="71"/>
+      <c r="G101" s="72"/>
+      <c r="H101" s="72"/>
+      <c r="I101" s="72"/>
+      <c r="J101" s="72"/>
       <c r="K101" s="50" t="s">
         <v>283</v>
       </c>
@@ -10231,13 +10905,13 @@
       <c r="E102" s="42">
         <v>95</v>
       </c>
-      <c r="F102" s="71" t="s">
+      <c r="F102" s="72" t="s">
         <v>284</v>
       </c>
-      <c r="G102" s="71"/>
-      <c r="H102" s="71"/>
-      <c r="I102" s="71"/>
-      <c r="J102" s="71"/>
+      <c r="G102" s="72"/>
+      <c r="H102" s="72"/>
+      <c r="I102" s="72"/>
+      <c r="J102" s="72"/>
       <c r="K102" s="50" t="s">
         <v>285</v>
       </c>
@@ -10250,13 +10924,13 @@
       <c r="E103" s="42">
         <v>96</v>
       </c>
-      <c r="F103" s="71" t="s">
+      <c r="F103" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="G103" s="71"/>
-      <c r="H103" s="71"/>
-      <c r="I103" s="71"/>
-      <c r="J103" s="71"/>
+      <c r="G103" s="72"/>
+      <c r="H103" s="72"/>
+      <c r="I103" s="72"/>
+      <c r="J103" s="72"/>
       <c r="K103" s="50" t="s">
         <v>131</v>
       </c>
@@ -10269,13 +10943,13 @@
       <c r="E104" s="42">
         <v>97</v>
       </c>
-      <c r="F104" s="71" t="s">
+      <c r="F104" s="72" t="s">
         <v>287</v>
       </c>
-      <c r="G104" s="71"/>
-      <c r="H104" s="71"/>
-      <c r="I104" s="71"/>
-      <c r="J104" s="71"/>
+      <c r="G104" s="72"/>
+      <c r="H104" s="72"/>
+      <c r="I104" s="72"/>
+      <c r="J104" s="72"/>
       <c r="K104" s="50" t="s">
         <v>288</v>
       </c>
@@ -10288,13 +10962,13 @@
       <c r="E105" s="42">
         <v>98</v>
       </c>
-      <c r="F105" s="71" t="s">
+      <c r="F105" s="72" t="s">
         <v>289</v>
       </c>
-      <c r="G105" s="71"/>
-      <c r="H105" s="71"/>
-      <c r="I105" s="71"/>
-      <c r="J105" s="71"/>
+      <c r="G105" s="72"/>
+      <c r="H105" s="72"/>
+      <c r="I105" s="72"/>
+      <c r="J105" s="72"/>
       <c r="K105" s="50" t="s">
         <v>290</v>
       </c>
@@ -10309,13 +10983,13 @@
       <c r="E106" s="42">
         <v>99</v>
       </c>
-      <c r="F106" s="71" t="s">
+      <c r="F106" s="72" t="s">
         <v>292</v>
       </c>
-      <c r="G106" s="71"/>
-      <c r="H106" s="71"/>
-      <c r="I106" s="71"/>
-      <c r="J106" s="71"/>
+      <c r="G106" s="72"/>
+      <c r="H106" s="72"/>
+      <c r="I106" s="72"/>
+      <c r="J106" s="72"/>
       <c r="K106" s="50" t="s">
         <v>293</v>
       </c>
@@ -10328,13 +11002,13 @@
       <c r="E107" s="42">
         <v>100</v>
       </c>
-      <c r="F107" s="71" t="s">
+      <c r="F107" s="72" t="s">
         <v>294</v>
       </c>
-      <c r="G107" s="71"/>
-      <c r="H107" s="71"/>
-      <c r="I107" s="71"/>
-      <c r="J107" s="71"/>
+      <c r="G107" s="72"/>
+      <c r="H107" s="72"/>
+      <c r="I107" s="72"/>
+      <c r="J107" s="72"/>
       <c r="K107" s="50" t="s">
         <v>295</v>
       </c>
@@ -10347,13 +11021,13 @@
       <c r="E108" s="42">
         <v>101</v>
       </c>
-      <c r="F108" s="71" t="s">
+      <c r="F108" s="72" t="s">
         <v>296</v>
       </c>
-      <c r="G108" s="71"/>
-      <c r="H108" s="71"/>
-      <c r="I108" s="71"/>
-      <c r="J108" s="71"/>
+      <c r="G108" s="72"/>
+      <c r="H108" s="72"/>
+      <c r="I108" s="72"/>
+      <c r="J108" s="72"/>
       <c r="K108" s="50" t="s">
         <v>131</v>
       </c>
@@ -10366,13 +11040,13 @@
       <c r="E109" s="42">
         <v>102</v>
       </c>
-      <c r="F109" s="71" t="s">
+      <c r="F109" s="72" t="s">
         <v>297</v>
       </c>
-      <c r="G109" s="71"/>
-      <c r="H109" s="71"/>
-      <c r="I109" s="71"/>
-      <c r="J109" s="71"/>
+      <c r="G109" s="72"/>
+      <c r="H109" s="72"/>
+      <c r="I109" s="72"/>
+      <c r="J109" s="72"/>
       <c r="K109" s="50" t="s">
         <v>288</v>
       </c>
@@ -10385,13 +11059,13 @@
       <c r="E110" s="42">
         <v>103</v>
       </c>
-      <c r="F110" s="71" t="s">
+      <c r="F110" s="72" t="s">
         <v>298</v>
       </c>
-      <c r="G110" s="71"/>
-      <c r="H110" s="71"/>
-      <c r="I110" s="71"/>
-      <c r="J110" s="71"/>
+      <c r="G110" s="72"/>
+      <c r="H110" s="72"/>
+      <c r="I110" s="72"/>
+      <c r="J110" s="72"/>
       <c r="K110" s="50" t="s">
         <v>290</v>
       </c>
@@ -10402,11 +11076,11 @@
       <c r="C111" s="50"/>
       <c r="D111" s="43"/>
       <c r="E111" s="42"/>
-      <c r="F111" s="71"/>
-      <c r="G111" s="71"/>
-      <c r="H111" s="71"/>
-      <c r="I111" s="71"/>
-      <c r="J111" s="71"/>
+      <c r="F111" s="72"/>
+      <c r="G111" s="72"/>
+      <c r="H111" s="72"/>
+      <c r="I111" s="72"/>
+      <c r="J111" s="72"/>
       <c r="K111" s="50"/>
       <c r="L111" s="51"/>
     </row>
@@ -10415,11 +11089,11 @@
       <c r="C112" s="50"/>
       <c r="D112" s="43"/>
       <c r="E112" s="42"/>
-      <c r="F112" s="71"/>
-      <c r="G112" s="71"/>
-      <c r="H112" s="71"/>
-      <c r="I112" s="71"/>
-      <c r="J112" s="71"/>
+      <c r="F112" s="72"/>
+      <c r="G112" s="72"/>
+      <c r="H112" s="72"/>
+      <c r="I112" s="72"/>
+      <c r="J112" s="72"/>
       <c r="K112" s="50"/>
       <c r="L112" s="51"/>
     </row>
@@ -10428,11 +11102,11 @@
       <c r="C113" s="50"/>
       <c r="D113" s="43"/>
       <c r="E113" s="42"/>
-      <c r="F113" s="71"/>
-      <c r="G113" s="71"/>
-      <c r="H113" s="71"/>
-      <c r="I113" s="71"/>
-      <c r="J113" s="71"/>
+      <c r="F113" s="72"/>
+      <c r="G113" s="72"/>
+      <c r="H113" s="72"/>
+      <c r="I113" s="72"/>
+      <c r="J113" s="72"/>
       <c r="K113" s="50"/>
       <c r="L113" s="51"/>
     </row>
@@ -10620,6 +11294,101 @@
     <protectedRange sqref="D12:D113" name="Requisitos_1"/>
   </protectedRanges>
   <mergeCells count="107">
+    <mergeCell ref="F109:J109"/>
+    <mergeCell ref="F110:J110"/>
+    <mergeCell ref="F111:J111"/>
+    <mergeCell ref="F112:J112"/>
+    <mergeCell ref="F113:J113"/>
+    <mergeCell ref="F103:J103"/>
+    <mergeCell ref="F104:J104"/>
+    <mergeCell ref="F105:J105"/>
+    <mergeCell ref="F106:J106"/>
+    <mergeCell ref="F107:J107"/>
+    <mergeCell ref="F108:J108"/>
+    <mergeCell ref="F97:J97"/>
+    <mergeCell ref="F98:J98"/>
+    <mergeCell ref="F99:J99"/>
+    <mergeCell ref="F100:J100"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="F102:J102"/>
+    <mergeCell ref="F91:J91"/>
+    <mergeCell ref="F92:J92"/>
+    <mergeCell ref="F93:J93"/>
+    <mergeCell ref="F94:J94"/>
+    <mergeCell ref="F95:J95"/>
+    <mergeCell ref="F96:J96"/>
+    <mergeCell ref="F85:J85"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="F87:J87"/>
+    <mergeCell ref="F88:J88"/>
+    <mergeCell ref="F89:J89"/>
+    <mergeCell ref="F90:J90"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="F80:J80"/>
+    <mergeCell ref="F81:J81"/>
+    <mergeCell ref="F82:J82"/>
+    <mergeCell ref="F83:J83"/>
+    <mergeCell ref="F84:J84"/>
+    <mergeCell ref="F73:J73"/>
+    <mergeCell ref="F74:J74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F77:J77"/>
+    <mergeCell ref="F78:J78"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F69:J69"/>
+    <mergeCell ref="F70:J70"/>
+    <mergeCell ref="F71:J71"/>
+    <mergeCell ref="F72:J72"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="F56:J56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="F58:J58"/>
+    <mergeCell ref="F59:J59"/>
+    <mergeCell ref="F60:J60"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F24:J24"/>
     <mergeCell ref="F13:J13"/>
     <mergeCell ref="F14:J14"/>
     <mergeCell ref="F15:J15"/>
@@ -10632,101 +11401,6 @@
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="F11:J11"/>
     <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="F47:J47"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="F56:J56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="F58:J58"/>
-    <mergeCell ref="F59:J59"/>
-    <mergeCell ref="F60:J60"/>
-    <mergeCell ref="F73:J73"/>
-    <mergeCell ref="F74:J74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F77:J77"/>
-    <mergeCell ref="F78:J78"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F69:J69"/>
-    <mergeCell ref="F70:J70"/>
-    <mergeCell ref="F71:J71"/>
-    <mergeCell ref="F72:J72"/>
-    <mergeCell ref="F85:J85"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="F87:J87"/>
-    <mergeCell ref="F88:J88"/>
-    <mergeCell ref="F89:J89"/>
-    <mergeCell ref="F90:J90"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="F80:J80"/>
-    <mergeCell ref="F81:J81"/>
-    <mergeCell ref="F82:J82"/>
-    <mergeCell ref="F83:J83"/>
-    <mergeCell ref="F84:J84"/>
-    <mergeCell ref="F97:J97"/>
-    <mergeCell ref="F98:J98"/>
-    <mergeCell ref="F99:J99"/>
-    <mergeCell ref="F100:J100"/>
-    <mergeCell ref="F101:J101"/>
-    <mergeCell ref="F102:J102"/>
-    <mergeCell ref="F91:J91"/>
-    <mergeCell ref="F92:J92"/>
-    <mergeCell ref="F93:J93"/>
-    <mergeCell ref="F94:J94"/>
-    <mergeCell ref="F95:J95"/>
-    <mergeCell ref="F96:J96"/>
-    <mergeCell ref="F109:J109"/>
-    <mergeCell ref="F110:J110"/>
-    <mergeCell ref="F111:J111"/>
-    <mergeCell ref="F112:J112"/>
-    <mergeCell ref="F113:J113"/>
-    <mergeCell ref="F103:J103"/>
-    <mergeCell ref="F104:J104"/>
-    <mergeCell ref="F105:J105"/>
-    <mergeCell ref="F106:J106"/>
-    <mergeCell ref="F107:J107"/>
-    <mergeCell ref="F108:J108"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D113 IZ12:IZ113 SV12:SV113 ACR12:ACR113 AMN12:AMN113 AWJ12:AWJ113 BGF12:BGF113 BQB12:BQB113 BZX12:BZX113 CJT12:CJT113 CTP12:CTP113 DDL12:DDL113 DNH12:DNH113 DXD12:DXD113 EGZ12:EGZ113 EQV12:EQV113 FAR12:FAR113 FKN12:FKN113 FUJ12:FUJ113 GEF12:GEF113 GOB12:GOB113 GXX12:GXX113 HHT12:HHT113 HRP12:HRP113 IBL12:IBL113 ILH12:ILH113 IVD12:IVD113 JEZ12:JEZ113 JOV12:JOV113 JYR12:JYR113 KIN12:KIN113 KSJ12:KSJ113 LCF12:LCF113 LMB12:LMB113 LVX12:LVX113 MFT12:MFT113 MPP12:MPP113 MZL12:MZL113 NJH12:NJH113 NTD12:NTD113 OCZ12:OCZ113 OMV12:OMV113 OWR12:OWR113 PGN12:PGN113 PQJ12:PQJ113 QAF12:QAF113 QKB12:QKB113 QTX12:QTX113 RDT12:RDT113 RNP12:RNP113 RXL12:RXL113 SHH12:SHH113 SRD12:SRD113 TAZ12:TAZ113 TKV12:TKV113 TUR12:TUR113 UEN12:UEN113 UOJ12:UOJ113 UYF12:UYF113 VIB12:VIB113 VRX12:VRX113 WBT12:WBT113 WLP12:WLP113 WVL12:WVL113 D65548:D65649 IZ65548:IZ65649 SV65548:SV65649 ACR65548:ACR65649 AMN65548:AMN65649 AWJ65548:AWJ65649 BGF65548:BGF65649 BQB65548:BQB65649 BZX65548:BZX65649 CJT65548:CJT65649 CTP65548:CTP65649 DDL65548:DDL65649 DNH65548:DNH65649 DXD65548:DXD65649 EGZ65548:EGZ65649 EQV65548:EQV65649 FAR65548:FAR65649 FKN65548:FKN65649 FUJ65548:FUJ65649 GEF65548:GEF65649 GOB65548:GOB65649 GXX65548:GXX65649 HHT65548:HHT65649 HRP65548:HRP65649 IBL65548:IBL65649 ILH65548:ILH65649 IVD65548:IVD65649 JEZ65548:JEZ65649 JOV65548:JOV65649 JYR65548:JYR65649 KIN65548:KIN65649 KSJ65548:KSJ65649 LCF65548:LCF65649 LMB65548:LMB65649 LVX65548:LVX65649 MFT65548:MFT65649 MPP65548:MPP65649 MZL65548:MZL65649 NJH65548:NJH65649 NTD65548:NTD65649 OCZ65548:OCZ65649 OMV65548:OMV65649 OWR65548:OWR65649 PGN65548:PGN65649 PQJ65548:PQJ65649 QAF65548:QAF65649 QKB65548:QKB65649 QTX65548:QTX65649 RDT65548:RDT65649 RNP65548:RNP65649 RXL65548:RXL65649 SHH65548:SHH65649 SRD65548:SRD65649 TAZ65548:TAZ65649 TKV65548:TKV65649 TUR65548:TUR65649 UEN65548:UEN65649 UOJ65548:UOJ65649 UYF65548:UYF65649 VIB65548:VIB65649 VRX65548:VRX65649 WBT65548:WBT65649 WLP65548:WLP65649 WVL65548:WVL65649 D131084:D131185 IZ131084:IZ131185 SV131084:SV131185 ACR131084:ACR131185 AMN131084:AMN131185 AWJ131084:AWJ131185 BGF131084:BGF131185 BQB131084:BQB131185 BZX131084:BZX131185 CJT131084:CJT131185 CTP131084:CTP131185 DDL131084:DDL131185 DNH131084:DNH131185 DXD131084:DXD131185 EGZ131084:EGZ131185 EQV131084:EQV131185 FAR131084:FAR131185 FKN131084:FKN131185 FUJ131084:FUJ131185 GEF131084:GEF131185 GOB131084:GOB131185 GXX131084:GXX131185 HHT131084:HHT131185 HRP131084:HRP131185 IBL131084:IBL131185 ILH131084:ILH131185 IVD131084:IVD131185 JEZ131084:JEZ131185 JOV131084:JOV131185 JYR131084:JYR131185 KIN131084:KIN131185 KSJ131084:KSJ131185 LCF131084:LCF131185 LMB131084:LMB131185 LVX131084:LVX131185 MFT131084:MFT131185 MPP131084:MPP131185 MZL131084:MZL131185 NJH131084:NJH131185 NTD131084:NTD131185 OCZ131084:OCZ131185 OMV131084:OMV131185 OWR131084:OWR131185 PGN131084:PGN131185 PQJ131084:PQJ131185 QAF131084:QAF131185 QKB131084:QKB131185 QTX131084:QTX131185 RDT131084:RDT131185 RNP131084:RNP131185 RXL131084:RXL131185 SHH131084:SHH131185 SRD131084:SRD131185 TAZ131084:TAZ131185 TKV131084:TKV131185 TUR131084:TUR131185 UEN131084:UEN131185 UOJ131084:UOJ131185 UYF131084:UYF131185 VIB131084:VIB131185 VRX131084:VRX131185 WBT131084:WBT131185 WLP131084:WLP131185 WVL131084:WVL131185 D196620:D196721 IZ196620:IZ196721 SV196620:SV196721 ACR196620:ACR196721 AMN196620:AMN196721 AWJ196620:AWJ196721 BGF196620:BGF196721 BQB196620:BQB196721 BZX196620:BZX196721 CJT196620:CJT196721 CTP196620:CTP196721 DDL196620:DDL196721 DNH196620:DNH196721 DXD196620:DXD196721 EGZ196620:EGZ196721 EQV196620:EQV196721 FAR196620:FAR196721 FKN196620:FKN196721 FUJ196620:FUJ196721 GEF196620:GEF196721 GOB196620:GOB196721 GXX196620:GXX196721 HHT196620:HHT196721 HRP196620:HRP196721 IBL196620:IBL196721 ILH196620:ILH196721 IVD196620:IVD196721 JEZ196620:JEZ196721 JOV196620:JOV196721 JYR196620:JYR196721 KIN196620:KIN196721 KSJ196620:KSJ196721 LCF196620:LCF196721 LMB196620:LMB196721 LVX196620:LVX196721 MFT196620:MFT196721 MPP196620:MPP196721 MZL196620:MZL196721 NJH196620:NJH196721 NTD196620:NTD196721 OCZ196620:OCZ196721 OMV196620:OMV196721 OWR196620:OWR196721 PGN196620:PGN196721 PQJ196620:PQJ196721 QAF196620:QAF196721 QKB196620:QKB196721 QTX196620:QTX196721 RDT196620:RDT196721 RNP196620:RNP196721 RXL196620:RXL196721 SHH196620:SHH196721 SRD196620:SRD196721 TAZ196620:TAZ196721 TKV196620:TKV196721 TUR196620:TUR196721 UEN196620:UEN196721 UOJ196620:UOJ196721 UYF196620:UYF196721 VIB196620:VIB196721 VRX196620:VRX196721 WBT196620:WBT196721 WLP196620:WLP196721 WVL196620:WVL196721 D262156:D262257 IZ262156:IZ262257 SV262156:SV262257 ACR262156:ACR262257 AMN262156:AMN262257 AWJ262156:AWJ262257 BGF262156:BGF262257 BQB262156:BQB262257 BZX262156:BZX262257 CJT262156:CJT262257 CTP262156:CTP262257 DDL262156:DDL262257 DNH262156:DNH262257 DXD262156:DXD262257 EGZ262156:EGZ262257 EQV262156:EQV262257 FAR262156:FAR262257 FKN262156:FKN262257 FUJ262156:FUJ262257 GEF262156:GEF262257 GOB262156:GOB262257 GXX262156:GXX262257 HHT262156:HHT262257 HRP262156:HRP262257 IBL262156:IBL262257 ILH262156:ILH262257 IVD262156:IVD262257 JEZ262156:JEZ262257 JOV262156:JOV262257 JYR262156:JYR262257 KIN262156:KIN262257 KSJ262156:KSJ262257 LCF262156:LCF262257 LMB262156:LMB262257 LVX262156:LVX262257 MFT262156:MFT262257 MPP262156:MPP262257 MZL262156:MZL262257 NJH262156:NJH262257 NTD262156:NTD262257 OCZ262156:OCZ262257 OMV262156:OMV262257 OWR262156:OWR262257 PGN262156:PGN262257 PQJ262156:PQJ262257 QAF262156:QAF262257 QKB262156:QKB262257 QTX262156:QTX262257 RDT262156:RDT262257 RNP262156:RNP262257 RXL262156:RXL262257 SHH262156:SHH262257 SRD262156:SRD262257 TAZ262156:TAZ262257 TKV262156:TKV262257 TUR262156:TUR262257 UEN262156:UEN262257 UOJ262156:UOJ262257 UYF262156:UYF262257 VIB262156:VIB262257 VRX262156:VRX262257 WBT262156:WBT262257 WLP262156:WLP262257 WVL262156:WVL262257 D327692:D327793 IZ327692:IZ327793 SV327692:SV327793 ACR327692:ACR327793 AMN327692:AMN327793 AWJ327692:AWJ327793 BGF327692:BGF327793 BQB327692:BQB327793 BZX327692:BZX327793 CJT327692:CJT327793 CTP327692:CTP327793 DDL327692:DDL327793 DNH327692:DNH327793 DXD327692:DXD327793 EGZ327692:EGZ327793 EQV327692:EQV327793 FAR327692:FAR327793 FKN327692:FKN327793 FUJ327692:FUJ327793 GEF327692:GEF327793 GOB327692:GOB327793 GXX327692:GXX327793 HHT327692:HHT327793 HRP327692:HRP327793 IBL327692:IBL327793 ILH327692:ILH327793 IVD327692:IVD327793 JEZ327692:JEZ327793 JOV327692:JOV327793 JYR327692:JYR327793 KIN327692:KIN327793 KSJ327692:KSJ327793 LCF327692:LCF327793 LMB327692:LMB327793 LVX327692:LVX327793 MFT327692:MFT327793 MPP327692:MPP327793 MZL327692:MZL327793 NJH327692:NJH327793 NTD327692:NTD327793 OCZ327692:OCZ327793 OMV327692:OMV327793 OWR327692:OWR327793 PGN327692:PGN327793 PQJ327692:PQJ327793 QAF327692:QAF327793 QKB327692:QKB327793 QTX327692:QTX327793 RDT327692:RDT327793 RNP327692:RNP327793 RXL327692:RXL327793 SHH327692:SHH327793 SRD327692:SRD327793 TAZ327692:TAZ327793 TKV327692:TKV327793 TUR327692:TUR327793 UEN327692:UEN327793 UOJ327692:UOJ327793 UYF327692:UYF327793 VIB327692:VIB327793 VRX327692:VRX327793 WBT327692:WBT327793 WLP327692:WLP327793 WVL327692:WVL327793 D393228:D393329 IZ393228:IZ393329 SV393228:SV393329 ACR393228:ACR393329 AMN393228:AMN393329 AWJ393228:AWJ393329 BGF393228:BGF393329 BQB393228:BQB393329 BZX393228:BZX393329 CJT393228:CJT393329 CTP393228:CTP393329 DDL393228:DDL393329 DNH393228:DNH393329 DXD393228:DXD393329 EGZ393228:EGZ393329 EQV393228:EQV393329 FAR393228:FAR393329 FKN393228:FKN393329 FUJ393228:FUJ393329 GEF393228:GEF393329 GOB393228:GOB393329 GXX393228:GXX393329 HHT393228:HHT393329 HRP393228:HRP393329 IBL393228:IBL393329 ILH393228:ILH393329 IVD393228:IVD393329 JEZ393228:JEZ393329 JOV393228:JOV393329 JYR393228:JYR393329 KIN393228:KIN393329 KSJ393228:KSJ393329 LCF393228:LCF393329 LMB393228:LMB393329 LVX393228:LVX393329 MFT393228:MFT393329 MPP393228:MPP393329 MZL393228:MZL393329 NJH393228:NJH393329 NTD393228:NTD393329 OCZ393228:OCZ393329 OMV393228:OMV393329 OWR393228:OWR393329 PGN393228:PGN393329 PQJ393228:PQJ393329 QAF393228:QAF393329 QKB393228:QKB393329 QTX393228:QTX393329 RDT393228:RDT393329 RNP393228:RNP393329 RXL393228:RXL393329 SHH393228:SHH393329 SRD393228:SRD393329 TAZ393228:TAZ393329 TKV393228:TKV393329 TUR393228:TUR393329 UEN393228:UEN393329 UOJ393228:UOJ393329 UYF393228:UYF393329 VIB393228:VIB393329 VRX393228:VRX393329 WBT393228:WBT393329 WLP393228:WLP393329 WVL393228:WVL393329 D458764:D458865 IZ458764:IZ458865 SV458764:SV458865 ACR458764:ACR458865 AMN458764:AMN458865 AWJ458764:AWJ458865 BGF458764:BGF458865 BQB458764:BQB458865 BZX458764:BZX458865 CJT458764:CJT458865 CTP458764:CTP458865 DDL458764:DDL458865 DNH458764:DNH458865 DXD458764:DXD458865 EGZ458764:EGZ458865 EQV458764:EQV458865 FAR458764:FAR458865 FKN458764:FKN458865 FUJ458764:FUJ458865 GEF458764:GEF458865 GOB458764:GOB458865 GXX458764:GXX458865 HHT458764:HHT458865 HRP458764:HRP458865 IBL458764:IBL458865 ILH458764:ILH458865 IVD458764:IVD458865 JEZ458764:JEZ458865 JOV458764:JOV458865 JYR458764:JYR458865 KIN458764:KIN458865 KSJ458764:KSJ458865 LCF458764:LCF458865 LMB458764:LMB458865 LVX458764:LVX458865 MFT458764:MFT458865 MPP458764:MPP458865 MZL458764:MZL458865 NJH458764:NJH458865 NTD458764:NTD458865 OCZ458764:OCZ458865 OMV458764:OMV458865 OWR458764:OWR458865 PGN458764:PGN458865 PQJ458764:PQJ458865 QAF458764:QAF458865 QKB458764:QKB458865 QTX458764:QTX458865 RDT458764:RDT458865 RNP458764:RNP458865 RXL458764:RXL458865 SHH458764:SHH458865 SRD458764:SRD458865 TAZ458764:TAZ458865 TKV458764:TKV458865 TUR458764:TUR458865 UEN458764:UEN458865 UOJ458764:UOJ458865 UYF458764:UYF458865 VIB458764:VIB458865 VRX458764:VRX458865 WBT458764:WBT458865 WLP458764:WLP458865 WVL458764:WVL458865 D524300:D524401 IZ524300:IZ524401 SV524300:SV524401 ACR524300:ACR524401 AMN524300:AMN524401 AWJ524300:AWJ524401 BGF524300:BGF524401 BQB524300:BQB524401 BZX524300:BZX524401 CJT524300:CJT524401 CTP524300:CTP524401 DDL524300:DDL524401 DNH524300:DNH524401 DXD524300:DXD524401 EGZ524300:EGZ524401 EQV524300:EQV524401 FAR524300:FAR524401 FKN524300:FKN524401 FUJ524300:FUJ524401 GEF524300:GEF524401 GOB524300:GOB524401 GXX524300:GXX524401 HHT524300:HHT524401 HRP524300:HRP524401 IBL524300:IBL524401 ILH524300:ILH524401 IVD524300:IVD524401 JEZ524300:JEZ524401 JOV524300:JOV524401 JYR524300:JYR524401 KIN524300:KIN524401 KSJ524300:KSJ524401 LCF524300:LCF524401 LMB524300:LMB524401 LVX524300:LVX524401 MFT524300:MFT524401 MPP524300:MPP524401 MZL524300:MZL524401 NJH524300:NJH524401 NTD524300:NTD524401 OCZ524300:OCZ524401 OMV524300:OMV524401 OWR524300:OWR524401 PGN524300:PGN524401 PQJ524300:PQJ524401 QAF524300:QAF524401 QKB524300:QKB524401 QTX524300:QTX524401 RDT524300:RDT524401 RNP524300:RNP524401 RXL524300:RXL524401 SHH524300:SHH524401 SRD524300:SRD524401 TAZ524300:TAZ524401 TKV524300:TKV524401 TUR524300:TUR524401 UEN524300:UEN524401 UOJ524300:UOJ524401 UYF524300:UYF524401 VIB524300:VIB524401 VRX524300:VRX524401 WBT524300:WBT524401 WLP524300:WLP524401 WVL524300:WVL524401 D589836:D589937 IZ589836:IZ589937 SV589836:SV589937 ACR589836:ACR589937 AMN589836:AMN589937 AWJ589836:AWJ589937 BGF589836:BGF589937 BQB589836:BQB589937 BZX589836:BZX589937 CJT589836:CJT589937 CTP589836:CTP589937 DDL589836:DDL589937 DNH589836:DNH589937 DXD589836:DXD589937 EGZ589836:EGZ589937 EQV589836:EQV589937 FAR589836:FAR589937 FKN589836:FKN589937 FUJ589836:FUJ589937 GEF589836:GEF589937 GOB589836:GOB589937 GXX589836:GXX589937 HHT589836:HHT589937 HRP589836:HRP589937 IBL589836:IBL589937 ILH589836:ILH589937 IVD589836:IVD589937 JEZ589836:JEZ589937 JOV589836:JOV589937 JYR589836:JYR589937 KIN589836:KIN589937 KSJ589836:KSJ589937 LCF589836:LCF589937 LMB589836:LMB589937 LVX589836:LVX589937 MFT589836:MFT589937 MPP589836:MPP589937 MZL589836:MZL589937 NJH589836:NJH589937 NTD589836:NTD589937 OCZ589836:OCZ589937 OMV589836:OMV589937 OWR589836:OWR589937 PGN589836:PGN589937 PQJ589836:PQJ589937 QAF589836:QAF589937 QKB589836:QKB589937 QTX589836:QTX589937 RDT589836:RDT589937 RNP589836:RNP589937 RXL589836:RXL589937 SHH589836:SHH589937 SRD589836:SRD589937 TAZ589836:TAZ589937 TKV589836:TKV589937 TUR589836:TUR589937 UEN589836:UEN589937 UOJ589836:UOJ589937 UYF589836:UYF589937 VIB589836:VIB589937 VRX589836:VRX589937 WBT589836:WBT589937 WLP589836:WLP589937 WVL589836:WVL589937 D655372:D655473 IZ655372:IZ655473 SV655372:SV655473 ACR655372:ACR655473 AMN655372:AMN655473 AWJ655372:AWJ655473 BGF655372:BGF655473 BQB655372:BQB655473 BZX655372:BZX655473 CJT655372:CJT655473 CTP655372:CTP655473 DDL655372:DDL655473 DNH655372:DNH655473 DXD655372:DXD655473 EGZ655372:EGZ655473 EQV655372:EQV655473 FAR655372:FAR655473 FKN655372:FKN655473 FUJ655372:FUJ655473 GEF655372:GEF655473 GOB655372:GOB655473 GXX655372:GXX655473 HHT655372:HHT655473 HRP655372:HRP655473 IBL655372:IBL655473 ILH655372:ILH655473 IVD655372:IVD655473 JEZ655372:JEZ655473 JOV655372:JOV655473 JYR655372:JYR655473 KIN655372:KIN655473 KSJ655372:KSJ655473 LCF655372:LCF655473 LMB655372:LMB655473 LVX655372:LVX655473 MFT655372:MFT655473 MPP655372:MPP655473 MZL655372:MZL655473 NJH655372:NJH655473 NTD655372:NTD655473 OCZ655372:OCZ655473 OMV655372:OMV655473 OWR655372:OWR655473 PGN655372:PGN655473 PQJ655372:PQJ655473 QAF655372:QAF655473 QKB655372:QKB655473 QTX655372:QTX655473 RDT655372:RDT655473 RNP655372:RNP655473 RXL655372:RXL655473 SHH655372:SHH655473 SRD655372:SRD655473 TAZ655372:TAZ655473 TKV655372:TKV655473 TUR655372:TUR655473 UEN655372:UEN655473 UOJ655372:UOJ655473 UYF655372:UYF655473 VIB655372:VIB655473 VRX655372:VRX655473 WBT655372:WBT655473 WLP655372:WLP655473 WVL655372:WVL655473 D720908:D721009 IZ720908:IZ721009 SV720908:SV721009 ACR720908:ACR721009 AMN720908:AMN721009 AWJ720908:AWJ721009 BGF720908:BGF721009 BQB720908:BQB721009 BZX720908:BZX721009 CJT720908:CJT721009 CTP720908:CTP721009 DDL720908:DDL721009 DNH720908:DNH721009 DXD720908:DXD721009 EGZ720908:EGZ721009 EQV720908:EQV721009 FAR720908:FAR721009 FKN720908:FKN721009 FUJ720908:FUJ721009 GEF720908:GEF721009 GOB720908:GOB721009 GXX720908:GXX721009 HHT720908:HHT721009 HRP720908:HRP721009 IBL720908:IBL721009 ILH720908:ILH721009 IVD720908:IVD721009 JEZ720908:JEZ721009 JOV720908:JOV721009 JYR720908:JYR721009 KIN720908:KIN721009 KSJ720908:KSJ721009 LCF720908:LCF721009 LMB720908:LMB721009 LVX720908:LVX721009 MFT720908:MFT721009 MPP720908:MPP721009 MZL720908:MZL721009 NJH720908:NJH721009 NTD720908:NTD721009 OCZ720908:OCZ721009 OMV720908:OMV721009 OWR720908:OWR721009 PGN720908:PGN721009 PQJ720908:PQJ721009 QAF720908:QAF721009 QKB720908:QKB721009 QTX720908:QTX721009 RDT720908:RDT721009 RNP720908:RNP721009 RXL720908:RXL721009 SHH720908:SHH721009 SRD720908:SRD721009 TAZ720908:TAZ721009 TKV720908:TKV721009 TUR720908:TUR721009 UEN720908:UEN721009 UOJ720908:UOJ721009 UYF720908:UYF721009 VIB720908:VIB721009 VRX720908:VRX721009 WBT720908:WBT721009 WLP720908:WLP721009 WVL720908:WVL721009 D786444:D786545 IZ786444:IZ786545 SV786444:SV786545 ACR786444:ACR786545 AMN786444:AMN786545 AWJ786444:AWJ786545 BGF786444:BGF786545 BQB786444:BQB786545 BZX786444:BZX786545 CJT786444:CJT786545 CTP786444:CTP786545 DDL786444:DDL786545 DNH786444:DNH786545 DXD786444:DXD786545 EGZ786444:EGZ786545 EQV786444:EQV786545 FAR786444:FAR786545 FKN786444:FKN786545 FUJ786444:FUJ786545 GEF786444:GEF786545 GOB786444:GOB786545 GXX786444:GXX786545 HHT786444:HHT786545 HRP786444:HRP786545 IBL786444:IBL786545 ILH786444:ILH786545 IVD786444:IVD786545 JEZ786444:JEZ786545 JOV786444:JOV786545 JYR786444:JYR786545 KIN786444:KIN786545 KSJ786444:KSJ786545 LCF786444:LCF786545 LMB786444:LMB786545 LVX786444:LVX786545 MFT786444:MFT786545 MPP786444:MPP786545 MZL786444:MZL786545 NJH786444:NJH786545 NTD786444:NTD786545 OCZ786444:OCZ786545 OMV786444:OMV786545 OWR786444:OWR786545 PGN786444:PGN786545 PQJ786444:PQJ786545 QAF786444:QAF786545 QKB786444:QKB786545 QTX786444:QTX786545 RDT786444:RDT786545 RNP786444:RNP786545 RXL786444:RXL786545 SHH786444:SHH786545 SRD786444:SRD786545 TAZ786444:TAZ786545 TKV786444:TKV786545 TUR786444:TUR786545 UEN786444:UEN786545 UOJ786444:UOJ786545 UYF786444:UYF786545 VIB786444:VIB786545 VRX786444:VRX786545 WBT786444:WBT786545 WLP786444:WLP786545 WVL786444:WVL786545 D851980:D852081 IZ851980:IZ852081 SV851980:SV852081 ACR851980:ACR852081 AMN851980:AMN852081 AWJ851980:AWJ852081 BGF851980:BGF852081 BQB851980:BQB852081 BZX851980:BZX852081 CJT851980:CJT852081 CTP851980:CTP852081 DDL851980:DDL852081 DNH851980:DNH852081 DXD851980:DXD852081 EGZ851980:EGZ852081 EQV851980:EQV852081 FAR851980:FAR852081 FKN851980:FKN852081 FUJ851980:FUJ852081 GEF851980:GEF852081 GOB851980:GOB852081 GXX851980:GXX852081 HHT851980:HHT852081 HRP851980:HRP852081 IBL851980:IBL852081 ILH851980:ILH852081 IVD851980:IVD852081 JEZ851980:JEZ852081 JOV851980:JOV852081 JYR851980:JYR852081 KIN851980:KIN852081 KSJ851980:KSJ852081 LCF851980:LCF852081 LMB851980:LMB852081 LVX851980:LVX852081 MFT851980:MFT852081 MPP851980:MPP852081 MZL851980:MZL852081 NJH851980:NJH852081 NTD851980:NTD852081 OCZ851980:OCZ852081 OMV851980:OMV852081 OWR851980:OWR852081 PGN851980:PGN852081 PQJ851980:PQJ852081 QAF851980:QAF852081 QKB851980:QKB852081 QTX851980:QTX852081 RDT851980:RDT852081 RNP851980:RNP852081 RXL851980:RXL852081 SHH851980:SHH852081 SRD851980:SRD852081 TAZ851980:TAZ852081 TKV851980:TKV852081 TUR851980:TUR852081 UEN851980:UEN852081 UOJ851980:UOJ852081 UYF851980:UYF852081 VIB851980:VIB852081 VRX851980:VRX852081 WBT851980:WBT852081 WLP851980:WLP852081 WVL851980:WVL852081 D917516:D917617 IZ917516:IZ917617 SV917516:SV917617 ACR917516:ACR917617 AMN917516:AMN917617 AWJ917516:AWJ917617 BGF917516:BGF917617 BQB917516:BQB917617 BZX917516:BZX917617 CJT917516:CJT917617 CTP917516:CTP917617 DDL917516:DDL917617 DNH917516:DNH917617 DXD917516:DXD917617 EGZ917516:EGZ917617 EQV917516:EQV917617 FAR917516:FAR917617 FKN917516:FKN917617 FUJ917516:FUJ917617 GEF917516:GEF917617 GOB917516:GOB917617 GXX917516:GXX917617 HHT917516:HHT917617 HRP917516:HRP917617 IBL917516:IBL917617 ILH917516:ILH917617 IVD917516:IVD917617 JEZ917516:JEZ917617 JOV917516:JOV917617 JYR917516:JYR917617 KIN917516:KIN917617 KSJ917516:KSJ917617 LCF917516:LCF917617 LMB917516:LMB917617 LVX917516:LVX917617 MFT917516:MFT917617 MPP917516:MPP917617 MZL917516:MZL917617 NJH917516:NJH917617 NTD917516:NTD917617 OCZ917516:OCZ917617 OMV917516:OMV917617 OWR917516:OWR917617 PGN917516:PGN917617 PQJ917516:PQJ917617 QAF917516:QAF917617 QKB917516:QKB917617 QTX917516:QTX917617 RDT917516:RDT917617 RNP917516:RNP917617 RXL917516:RXL917617 SHH917516:SHH917617 SRD917516:SRD917617 TAZ917516:TAZ917617 TKV917516:TKV917617 TUR917516:TUR917617 UEN917516:UEN917617 UOJ917516:UOJ917617 UYF917516:UYF917617 VIB917516:VIB917617 VRX917516:VRX917617 WBT917516:WBT917617 WLP917516:WLP917617 WVL917516:WVL917617 D983052:D983153 IZ983052:IZ983153 SV983052:SV983153 ACR983052:ACR983153 AMN983052:AMN983153 AWJ983052:AWJ983153 BGF983052:BGF983153 BQB983052:BQB983153 BZX983052:BZX983153 CJT983052:CJT983153 CTP983052:CTP983153 DDL983052:DDL983153 DNH983052:DNH983153 DXD983052:DXD983153 EGZ983052:EGZ983153 EQV983052:EQV983153 FAR983052:FAR983153 FKN983052:FKN983153 FUJ983052:FUJ983153 GEF983052:GEF983153 GOB983052:GOB983153 GXX983052:GXX983153 HHT983052:HHT983153 HRP983052:HRP983153 IBL983052:IBL983153 ILH983052:ILH983153 IVD983052:IVD983153 JEZ983052:JEZ983153 JOV983052:JOV983153 JYR983052:JYR983153 KIN983052:KIN983153 KSJ983052:KSJ983153 LCF983052:LCF983153 LMB983052:LMB983153 LVX983052:LVX983153 MFT983052:MFT983153 MPP983052:MPP983153 MZL983052:MZL983153 NJH983052:NJH983153 NTD983052:NTD983153 OCZ983052:OCZ983153 OMV983052:OMV983153 OWR983052:OWR983153 PGN983052:PGN983153 PQJ983052:PQJ983153 QAF983052:QAF983153 QKB983052:QKB983153 QTX983052:QTX983153 RDT983052:RDT983153 RNP983052:RNP983153 RXL983052:RXL983153 SHH983052:SHH983153 SRD983052:SRD983153 TAZ983052:TAZ983153 TKV983052:TKV983153 TUR983052:TUR983153 UEN983052:UEN983153 UOJ983052:UOJ983153 UYF983052:UYF983153 VIB983052:VIB983153 VRX983052:VRX983153 WBT983052:WBT983153 WLP983052:WLP983153 WVL983052:WVL983153" xr:uid="{312DDDF6-E555-4805-BA68-ADD67DE7CEA4}">
@@ -12341,7 +13015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB015DFA-3AD7-4C9A-861E-137CBB6F1B07}">
   <dimension ref="C3:K11"/>
   <sheetViews>
@@ -12355,18 +13029,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92" t="s">
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D4" s="8" t="s">
